--- a/Review/PO_SB_Documentation_TeamE_Review_Template.xlsx
+++ b/Review/PO_SB_Documentation_TeamE_Review_Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\Graduation Project\Graduation-Project-documentation\Review\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB9D75-903A-4DDC-81E5-D34C434CBA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>Entry Date</t>
   </si>
@@ -146,16 +152,79 @@
   </si>
   <si>
     <t>Making a voice to notify the driver that a speed bump is located at a specific distance is the final phase of the application.</t>
+  </si>
+  <si>
+    <t>Abstract/line 5</t>
+  </si>
+  <si>
+    <t>Egypt ' only 1 point after it</t>
+  </si>
+  <si>
+    <t>Abstract/line 6,7,8</t>
+  </si>
+  <si>
+    <t>intead by:As unsafe routes like (the agricultural road of Upper Egypt), which has more than 180 random bumps, show, the random bumps are still growing nowadays.</t>
+  </si>
+  <si>
+    <t>Abstract/line 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kilometers replace it by 'kilometres</t>
+  </si>
+  <si>
+    <t>spelling</t>
+  </si>
+  <si>
+    <t>Abstract/last pragraph/line 2</t>
+  </si>
+  <si>
+    <t>delete the space after 'driving'</t>
+  </si>
+  <si>
+    <t>ch2.5Risk management/line 1</t>
+  </si>
+  <si>
+    <t>:risk</t>
+  </si>
+  <si>
+    <t>ch2.5Risk management/line 5</t>
+  </si>
+  <si>
+    <t>practise whith s</t>
+  </si>
+  <si>
+    <t>ch2.5Risk management/P4/line 1</t>
+  </si>
+  <si>
+    <t>risk ,write it betwwen ""</t>
+  </si>
+  <si>
+    <t>ch2.5Risk management/last p/line 2</t>
+  </si>
+  <si>
+    <t>delete … before a future+replace 'which' with 'that'</t>
+  </si>
+  <si>
+    <t>ch2.5Risk management/last P/line 3</t>
+  </si>
+  <si>
+    <t>write " before project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch2.5Risk management/last P/last line </t>
+  </si>
+  <si>
+    <t>replace , with _ + delete the last "</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -179,6 +248,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,8 +325,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,7 +345,7 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -281,586 +354,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1094,27 +595,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="7" width="44.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" customWidth="1"/>
+    <col min="7" max="7" width="52.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1348,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1374,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1400,76 +902,218 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="8:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="H17" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="8:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="8:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H19" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="4:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:H2 G8:H9 D7:H7 C7:C13 C3:H6 A3:B13 D8:F13 G10:G11 H10:H19">
-    <cfRule type="expression" dxfId="51" priority="3">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A2:H2 D7:H7 C7:C13 C3:H6 A3:B13 G8:H19 G20:G23 H20:H24 D8:F23">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H2 G8:H9 D7:H7 C7:C13 C3:H6 A3:B13 D8:F13 G10:G11 H10:H19">
-    <cfRule type="expression" dxfId="50" priority="4">
+  <conditionalFormatting sqref="A2:H2 D7:H7 C7:C13 C3:H6 A3:B13 G8:H19 G20:G23 H20:H24 D8:F23">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Review/PO_SB_Documentation_TeamE_Review_Template.xlsx
+++ b/Review/PO_SB_Documentation_TeamE_Review_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\Graduation Project\Graduation-Project-documentation\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB9D75-903A-4DDC-81E5-D34C434CBA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3FD3E-2BF9-4E1F-B2EB-6F644DFFBB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -602,7 +625,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Review/PO_SB_Documentation_TeamE_Review_Template.xlsx
+++ b/Review/PO_SB_Documentation_TeamE_Review_Template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\Graduation Project\Graduation-Project-documentation\Review\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3FD3E-2BF9-4E1F-B2EB-6F644DFFBB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>Entry Date</t>
   </si>
@@ -215,12 +209,39 @@
   </si>
   <si>
     <t>replace , with _ + delete the last "</t>
+  </si>
+  <si>
+    <t>mariam mohamed</t>
+  </si>
+  <si>
+    <t>Doc_REV_013</t>
+  </si>
+  <si>
+    <t>Doc_REV_014</t>
+  </si>
+  <si>
+    <t>Doc_REV_015</t>
+  </si>
+  <si>
+    <t>Doc_REV_016</t>
+  </si>
+  <si>
+    <t>Doc_REV_017</t>
+  </si>
+  <si>
+    <t>Doc_REV_018</t>
+  </si>
+  <si>
+    <t>Doc_REV_019</t>
+  </si>
+  <si>
+    <t>Doc_REV_020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -361,7 +382,168 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -618,28 +800,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" customWidth="1"/>
-    <col min="7" max="7" width="52.44140625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -665,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -691,7 +873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -717,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -743,7 +925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -769,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -795,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -821,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -847,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -873,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -899,7 +1081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -925,12 +1107,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
@@ -947,12 +1133,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
@@ -969,7 +1159,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
@@ -986,7 +1185,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1003,7 +1211,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1237,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1037,7 +1263,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1289,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1315,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1341,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44784</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1105,38 +1367,83 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="4:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="4:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H2 D7:H7 C7:C13 C3:H6 A3:B13 G8:H19 G20:G23 H20:H24 D8:F23">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:H21 H22:H29">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H2 D7:H7 C7:C13 C3:H6 A3:B13 G8:H19 G20:G23 H20:H24 D8:F23">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="A2:H21 H22:H29">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="7" priority="19">
+      <formula>#REF! = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="6" priority="20">
+      <formula>#REF!= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="5" priority="23">
+      <formula>#REF! = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>#REF!= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H29">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>
